--- a/qq64.xlsx
+++ b/qq64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66855CC-1AFB-4715-925A-671D5AD099FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E7E691-CB15-4079-8255-7DE7A1305890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Version</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1V49K2DlhksxHlNlDfPTguw?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/qq-64/Android_9.2.20_64.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1XvpWD66wKnYEAHk-QP9k0Q?pwd=1234</t>
+  </si>
+  <si>
+    <t>9.2.20</t>
+  </si>
+  <si>
+    <t>Oct 22, 2025</t>
   </si>
 </sst>
 </file>
@@ -490,18 +502,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
@@ -526,67 +538,87 @@
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{EA1F0519-EA33-4DD7-ACEB-5462E810D634}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{9816ABAC-B53F-45D7-AC54-347C563A8816}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{3D43D054-926F-4F9F-ADC8-9B83681951D4}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{43BBF935-E643-4239-9DD8-3457D184F267}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{902E742D-7627-443C-90A1-6A751D80BFDD}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{307A4E20-4106-445B-884A-96C0EF1C379A}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{B499726D-547D-424D-B185-A4CF677F33DD}"/>
-    <hyperlink ref="D2" r:id="rId8" xr:uid="{65519C3B-6B99-4879-93B7-86044A018A6F}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{EA1F0519-EA33-4DD7-ACEB-5462E810D634}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{9816ABAC-B53F-45D7-AC54-347C563A8816}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{3D43D054-926F-4F9F-ADC8-9B83681951D4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{43BBF935-E643-4239-9DD8-3457D184F267}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{902E742D-7627-443C-90A1-6A751D80BFDD}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{307A4E20-4106-445B-884A-96C0EF1C379A}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{B499726D-547D-424D-B185-A4CF677F33DD}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{65519C3B-6B99-4879-93B7-86044A018A6F}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{BCC010DD-7309-40B6-8CCA-4D1557A9FD87}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{9E187BAD-1F37-4D2A-9AB5-CCC9C93A6BC4}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{917F6B58-E946-4E85-B666-0B1488C81E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId12"/>
 </worksheet>
 </file>
--- a/qq64.xlsx
+++ b/qq64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E7E691-CB15-4079-8255-7DE7A1305890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5957ABC-6EDB-4FC7-881D-DE0CFB27D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Version</t>
   </si>
@@ -99,6 +99,21 @@
   </si>
   <si>
     <t>Oct 22, 2025</t>
+  </si>
+  <si>
+    <t>https://downv6.qq.com/qqweb/QQ_1/android_apk/9.2.27_e4f9a7b3c1d2e5f6a8b9c0d1e2f3a4b5.apk</t>
+  </si>
+  <si>
+    <t>9.2.27</t>
+  </si>
+  <si>
+    <t>Nov 11, 2025</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1d8W_TULJrrSiVOLeLeNJXg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/qq-64/Android_9.2.27_64.apk</t>
   </si>
 </sst>
 </file>
@@ -502,18 +517,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
@@ -538,87 +553,106 @@
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{EA1F0519-EA33-4DD7-ACEB-5462E810D634}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{9816ABAC-B53F-45D7-AC54-347C563A8816}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{3D43D054-926F-4F9F-ADC8-9B83681951D4}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{43BBF935-E643-4239-9DD8-3457D184F267}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{902E742D-7627-443C-90A1-6A751D80BFDD}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{307A4E20-4106-445B-884A-96C0EF1C379A}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{B499726D-547D-424D-B185-A4CF677F33DD}"/>
-    <hyperlink ref="D3" r:id="rId8" xr:uid="{65519C3B-6B99-4879-93B7-86044A018A6F}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{BCC010DD-7309-40B6-8CCA-4D1557A9FD87}"/>
-    <hyperlink ref="D2" r:id="rId10" xr:uid="{9E187BAD-1F37-4D2A-9AB5-CCC9C93A6BC4}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{917F6B58-E946-4E85-B666-0B1488C81E3F}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{EA1F0519-EA33-4DD7-ACEB-5462E810D634}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{9816ABAC-B53F-45D7-AC54-347C563A8816}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{3D43D054-926F-4F9F-ADC8-9B83681951D4}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{43BBF935-E643-4239-9DD8-3457D184F267}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{902E742D-7627-443C-90A1-6A751D80BFDD}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{307A4E20-4106-445B-884A-96C0EF1C379A}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{B499726D-547D-424D-B185-A4CF677F33DD}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{65519C3B-6B99-4879-93B7-86044A018A6F}"/>
+    <hyperlink ref="E3" r:id="rId9" xr:uid="{BCC010DD-7309-40B6-8CCA-4D1557A9FD87}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{9E187BAD-1F37-4D2A-9AB5-CCC9C93A6BC4}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{917F6B58-E946-4E85-B666-0B1488C81E3F}"/>
+    <hyperlink ref="D2" r:id="rId12" xr:uid="{5CC0BD96-49FC-4175-915E-9BE6061E05ED}"/>
+    <hyperlink ref="E2" r:id="rId13" xr:uid="{A4A87738-C897-4DBE-8BA6-AB8772BEF1B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>
 </worksheet>
 </file>
--- a/qq64.xlsx
+++ b/qq64.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5957ABC-6EDB-4FC7-881D-DE0CFB27D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80009B-0098-4DF9-A336-A10DBE707125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Version</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/APK-save/releases/download/qq-64/Android_9.2.27_64.apk</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1PTAPpz-elj-SR7qwk5akLg?pwd=1234</t>
+  </si>
+  <si>
+    <t>https://downv6.qq.com/qqweb/QQ_1/android_apk/9.2.35_0981238b4dfded76.apk</t>
+  </si>
+  <si>
+    <t>Dec 5, 2025</t>
+  </si>
+  <si>
+    <t>9.2.35</t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/APK-save/releases/download/qq-64/Android_9.2.35_64.apk</t>
   </si>
 </sst>
 </file>
@@ -175,13 +190,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,24 +533,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,108 +567,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{EA1F0519-EA33-4DD7-ACEB-5462E810D634}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{9816ABAC-B53F-45D7-AC54-347C563A8816}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{3D43D054-926F-4F9F-ADC8-9B83681951D4}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{43BBF935-E643-4239-9DD8-3457D184F267}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{902E742D-7627-443C-90A1-6A751D80BFDD}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{307A4E20-4106-445B-884A-96C0EF1C379A}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{B499726D-547D-424D-B185-A4CF677F33DD}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{65519C3B-6B99-4879-93B7-86044A018A6F}"/>
-    <hyperlink ref="E3" r:id="rId9" xr:uid="{BCC010DD-7309-40B6-8CCA-4D1557A9FD87}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{9E187BAD-1F37-4D2A-9AB5-CCC9C93A6BC4}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{917F6B58-E946-4E85-B666-0B1488C81E3F}"/>
-    <hyperlink ref="D2" r:id="rId12" xr:uid="{5CC0BD96-49FC-4175-915E-9BE6061E05ED}"/>
-    <hyperlink ref="E2" r:id="rId13" xr:uid="{A4A87738-C897-4DBE-8BA6-AB8772BEF1B0}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{EA1F0519-EA33-4DD7-ACEB-5462E810D634}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{9816ABAC-B53F-45D7-AC54-347C563A8816}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{917F6B58-E946-4E85-B666-0B1488C81E3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>